--- a/Fibrinet_APP/tests/input_data/TestNetwork.xlsx
+++ b/Fibrinet_APP/tests/input_data/TestNetwork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Documents\GitHub\Webslinger\test\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\Documents\UCO\Fibrinet-main\Fibrinet_APP\test\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8EC305-6E1E-416E-B21C-F61E219C499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159DAE6-55B5-4CF8-BD3A-102C964FEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TriangleData" sheetId="2" r:id="rId1"/>
@@ -81,18 +81,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,9 +119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,7 +341,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -555,7 +546,7 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -853,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
